--- a/0all-sku.xlsx
+++ b/0all-sku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\barcode&amp;packing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\project\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8E5EF6-99AC-4641-ACFD-5326611A0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31770331-58A8-4313-A292-323711BA63C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1920" windowWidth="26820" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -285,16 +285,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SU24546-1
-00-14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SU24546-2
-00-14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WEB</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,16 +314,6 @@
   </si>
   <si>
     <t>REBECCA RIB DRESS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SU24531-1
-24-32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SU24571-1
-24-32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +351,22 @@
   </si>
   <si>
     <t>SU24511-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU24546-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU24546-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU24571-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU24531-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -827,23 +823,90 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -857,66 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -925,39 +928,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -971,30 +941,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="26" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1815,8 +1811,8 @@
   </sheetPr>
   <dimension ref="A1:U967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1841,11 +1837,11 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="41"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -1864,26 +1860,26 @@
       <c r="T1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
       <c r="S2" s="28"/>
       <c r="T2" s="38"/>
     </row>
@@ -1933,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S4" s="28"/>
       <c r="T4" s="38"/>
@@ -2096,54 +2092,54 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="69" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="50"/>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="84" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="84" t="s">
+      <c r="P11" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="54" t="s">
+      <c r="T11" s="98" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="45"/>
       <c r="F12" s="29" t="s">
         <v>19</v>
@@ -2170,18 +2166,18 @@
         <v>26</v>
       </c>
       <c r="N12" s="29"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="55"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="99"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="46"/>
       <c r="F13" s="29">
         <v>24</v>
@@ -2210,26 +2206,26 @@
       <c r="N13" s="34">
         <v>32</v>
       </c>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="56"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="100"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="78" t="s">
-        <v>90</v>
+      <c r="E14" s="81" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="29">
         <v>1</v>
@@ -2254,7 +2250,7 @@
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="69">
+      <c r="O14" s="90">
         <v>27.4</v>
       </c>
       <c r="P14" s="72">
@@ -2276,11 +2272,11 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="29">
         <v>2</v>
       </c>
@@ -2308,7 +2304,7 @@
       <c r="N15" s="29">
         <v>1</v>
       </c>
-      <c r="O15" s="70"/>
+      <c r="O15" s="91"/>
       <c r="P15" s="73"/>
       <c r="Q15" s="76"/>
       <c r="R15" s="36">
@@ -2318,15 +2314,15 @@
         <v>10744</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="80"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="29">
         <v>9</v>
       </c>
@@ -2354,7 +2350,7 @@
       <c r="N16" s="29">
         <v>1</v>
       </c>
-      <c r="O16" s="71"/>
+      <c r="O16" s="92"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="36">
@@ -2364,18 +2360,18 @@
         <v>10746</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="63" t="s">
+      <c r="A17" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="42"/>
@@ -2388,7 +2384,7 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="69">
+      <c r="O17" s="90">
         <v>26.18</v>
       </c>
       <c r="P17" s="72">
@@ -2404,10 +2400,10 @@
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="67"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="43"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -2418,7 +2414,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="70"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="73"/>
       <c r="Q18" s="76"/>
       <c r="R18" s="36"/>
@@ -2426,10 +2422,10 @@
       <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="44"/>
       <c r="F19" s="29">
         <v>17</v>
@@ -2458,7 +2454,7 @@
       <c r="N19" s="29">
         <v>11</v>
       </c>
-      <c r="O19" s="71"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="74"/>
       <c r="Q19" s="77"/>
       <c r="R19" s="36">
@@ -2468,22 +2464,22 @@
         <v>10746</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="60" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>86</v>
       </c>
       <c r="F20" s="29">
         <v>1</v>
@@ -2512,7 +2508,7 @@
       <c r="N20" s="29">
         <v>1</v>
       </c>
-      <c r="O20" s="98">
+      <c r="O20" s="63">
         <v>37.9</v>
       </c>
       <c r="P20" s="72">
@@ -2534,11 +2530,11 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="29">
         <v>2</v>
       </c>
@@ -2566,7 +2562,7 @@
       <c r="N21" s="29">
         <v>1</v>
       </c>
-      <c r="O21" s="99"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="73"/>
       <c r="Q21" s="76"/>
       <c r="R21" s="36">
@@ -2576,18 +2572,18 @@
         <v>10744</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U21" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="29">
         <v>7</v>
       </c>
@@ -2615,7 +2611,7 @@
       <c r="N22" s="29">
         <v>1</v>
       </c>
-      <c r="O22" s="100"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="77"/>
       <c r="R22" s="36">
@@ -2625,22 +2621,22 @@
         <v>10746</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="63" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="78" t="s">
-        <v>85</v>
+      <c r="E23" s="81" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -2667,11 +2663,11 @@
       <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="79"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -2689,11 +2685,11 @@
       <c r="T24" s="39"/>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="80"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29">
         <v>14</v>
@@ -2723,20 +2719,20 @@
         <v>10747</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="63" t="s">
+      <c r="B26" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="60" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="42"/>
@@ -2781,10 +2777,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="43"/>
       <c r="F27" s="29">
         <v>3</v>
@@ -2817,14 +2813,14 @@
         <v>10706</v>
       </c>
       <c r="T27" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="44"/>
       <c r="F28" s="29">
         <v>1</v>
@@ -2855,20 +2851,20 @@
         <v>10704</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="63" t="s">
+      <c r="B29" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="60" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="42"/>
@@ -2895,7 +2891,7 @@
       </c>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="69">
+      <c r="O29" s="90">
         <v>14</v>
       </c>
       <c r="P29" s="87">
@@ -2917,10 +2913,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="43"/>
       <c r="F30" s="29">
         <v>5</v>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="70"/>
+      <c r="O30" s="91"/>
       <c r="P30" s="88"/>
       <c r="Q30" s="76"/>
       <c r="R30" s="36" t="s">
@@ -2955,14 +2951,14 @@
         <v>10706</v>
       </c>
       <c r="T30" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="44"/>
       <c r="F31" s="29">
         <v>2</v>
@@ -2987,7 +2983,7 @@
       </c>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="71"/>
+      <c r="O31" s="92"/>
       <c r="P31" s="89"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="36" t="s">
@@ -2997,20 +2993,20 @@
         <v>10704</v>
       </c>
       <c r="T31" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="B32" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="81" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="47"/>
@@ -3037,7 +3033,7 @@
       </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="69">
+      <c r="O32" s="90">
         <v>14</v>
       </c>
       <c r="P32" s="87">
@@ -3059,10 +3055,10 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="79"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="48"/>
       <c r="F33" s="29">
         <v>2</v>
@@ -3087,7 +3083,7 @@
       </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="70"/>
+      <c r="O33" s="91"/>
       <c r="P33" s="88"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="36" t="s">
@@ -3097,14 +3093,14 @@
         <v>10706</v>
       </c>
       <c r="T33" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="80"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="49"/>
       <c r="F34" s="29">
         <v>2</v>
@@ -3127,7 +3123,7 @@
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="71"/>
+      <c r="O34" s="92"/>
       <c r="P34" s="89"/>
       <c r="Q34" s="77"/>
       <c r="R34" s="36" t="s">
@@ -3137,20 +3133,20 @@
         <v>10704</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="81" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="47"/>
@@ -3197,10 +3193,10 @@
       </c>
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="79"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="48"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -3219,10 +3215,10 @@
       <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="49"/>
       <c r="F37" s="29">
         <v>1</v>
@@ -3255,20 +3251,20 @@
         <v>10704</v>
       </c>
       <c r="T37" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="63" t="s">
+      <c r="B38" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="81" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="47"/>
@@ -3315,10 +3311,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="79"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="48"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
@@ -3337,10 +3333,10 @@
       <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="49"/>
       <c r="F40" s="29">
         <v>1</v>
@@ -3373,20 +3369,20 @@
         <v>10704</v>
       </c>
       <c r="T40" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="63" t="s">
+      <c r="B41" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="47"/>
@@ -3433,10 +3429,10 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="79"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="48"/>
       <c r="F42" s="29">
         <v>4</v>
@@ -3471,14 +3467,14 @@
         <v>10706</v>
       </c>
       <c r="T42" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="80"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="49"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29">
@@ -3509,20 +3505,20 @@
         <v>10704</v>
       </c>
       <c r="T43" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="63" t="s">
+      <c r="B44" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="42"/>
@@ -3569,10 +3565,10 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="43"/>
       <c r="F45" s="29">
         <v>2</v>
@@ -3607,14 +3603,14 @@
         <v>10706</v>
       </c>
       <c r="T45" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="44"/>
       <c r="F46" s="29">
         <v>1</v>
@@ -3647,20 +3643,20 @@
         <v>10704</v>
       </c>
       <c r="T46" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="63" t="s">
+      <c r="A47" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="60" t="s">
         <v>70</v>
       </c>
       <c r="E47" s="42"/>
@@ -3709,14 +3705,14 @@
         <v>10706</v>
       </c>
       <c r="T47" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="44"/>
       <c r="F48" s="29"/>
       <c r="G48" s="29">
@@ -3747,20 +3743,20 @@
         <v>10704</v>
       </c>
       <c r="T48" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="63" t="s">
+      <c r="A49" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="42"/>
@@ -3809,14 +3805,14 @@
         <v>10706</v>
       </c>
       <c r="T49" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="68"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="44"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29">
@@ -3849,20 +3845,20 @@
         <v>10704</v>
       </c>
       <c r="T50" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="60" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="42"/>
@@ -3901,7 +3897,7 @@
         <v>1962</v>
       </c>
       <c r="R51" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S51" s="33">
         <v>10708</v>
@@ -3911,10 +3907,10 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="43"/>
       <c r="F52" s="29">
         <v>2</v>
@@ -3943,20 +3939,20 @@
       <c r="P52" s="88"/>
       <c r="Q52" s="76"/>
       <c r="R52" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S52" s="33">
         <v>10709</v>
       </c>
       <c r="T52" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="44"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29">
@@ -3981,24 +3977,24 @@
       <c r="P53" s="89"/>
       <c r="Q53" s="77"/>
       <c r="R53" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S53" s="33">
         <v>10707</v>
       </c>
       <c r="T53" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="66" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="42"/>
@@ -4035,7 +4031,7 @@
         <v>1254.4000000000001</v>
       </c>
       <c r="R54" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S54" s="33">
         <v>10708</v>
@@ -4045,10 +4041,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="67"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="43"/>
       <c r="F55" s="29">
         <v>4</v>
@@ -4077,20 +4073,20 @@
       <c r="P55" s="88"/>
       <c r="Q55" s="76"/>
       <c r="R55" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S55" s="33">
         <v>10709</v>
       </c>
       <c r="T55" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="68"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="44"/>
       <c r="F56" s="29">
         <v>1</v>
@@ -4117,24 +4113,24 @@
       <c r="P56" s="89"/>
       <c r="Q56" s="77"/>
       <c r="R56" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S56" s="33">
         <v>10707</v>
       </c>
       <c r="T56" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="66" t="s">
+      <c r="A57" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="42"/>
@@ -4164,7 +4160,7 @@
       <c r="O57" s="75">
         <v>11.1</v>
       </c>
-      <c r="P57" s="90">
+      <c r="P57" s="93">
         <f>SUM(F57:N58)</f>
         <v>272</v>
       </c>
@@ -4173,20 +4169,20 @@
         <v>3019.2</v>
       </c>
       <c r="R57" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S57" s="33">
         <v>10709</v>
       </c>
       <c r="T57" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="68"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="44"/>
       <c r="F58" s="29">
         <v>1</v>
@@ -4210,16 +4206,16 @@
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
       <c r="O58" s="77"/>
-      <c r="P58" s="91"/>
+      <c r="P58" s="94"/>
       <c r="Q58" s="77"/>
       <c r="R58" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S58" s="33">
         <v>10707</v>
       </c>
       <c r="T58" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4331,64 +4327,52 @@
     <row r="967" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="P54:P56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="O51:O53"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="P38:P40"/>
@@ -4413,52 +4397,64 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="O54:O56"/>
-    <mergeCell ref="P54:P56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q54:Q56"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
